--- a/T_TEST.xlsx
+++ b/T_TEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saika\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saika\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C48439E-7E1E-4A6C-9046-31B3A4D88548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F09992C-6AC2-4B11-BF1E-0AB32AC7BEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FFAF212-EE06-43F5-A5B4-5FAFD3C83C99}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>After</t>
   </si>
@@ -59,16 +57,10 @@
     <t>t-value</t>
   </si>
   <si>
-    <t>ra</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
     <t>LOW</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>High</t>
@@ -140,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -156,21 +148,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -388,70 +365,152 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -459,20 +518,32 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,7 +551,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,19 +560,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,410 +971,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D78625E-AC96-4D5A-A983-96660E1BE956}">
-  <dimension ref="B1:M22"/>
+  <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="F1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="L1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="M1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="38"/>
-      <c r="C2" s="1">
+      <c r="B2" s="65"/>
+      <c r="C2" s="61">
         <v>17</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="15">
         <v>14</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="33">
+      <c r="E2" s="30"/>
+      <c r="F2" s="18">
         <v>17</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="19">
         <v>14</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="1">
-        <v>22</v>
-      </c>
-      <c r="J2" s="30">
-        <v>20</v>
-      </c>
-      <c r="K2" s="38"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="1">
         <v>39</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="15">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="38"/>
-      <c r="C3" s="2">
+      <c r="B3" s="65"/>
+      <c r="C3" s="62">
         <v>18</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="15">
         <v>15</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="35">
+      <c r="E3" s="31"/>
+      <c r="F3" s="20">
         <v>18</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="21">
         <v>15</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="31">
-        <v>25</v>
-      </c>
-      <c r="J3" s="32">
-        <v>21</v>
-      </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="31">
+      <c r="H3" s="43"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="16">
         <v>41</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="1">
-        <v>22</v>
-      </c>
-      <c r="D4" s="30">
-        <v>20</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="2">
-        <v>25</v>
-      </c>
-      <c r="D5" s="30">
-        <v>21</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="44">
+        <v>39</v>
+      </c>
+      <c r="D4" s="57">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="66"/>
+      <c r="C5" s="63">
+        <v>41</v>
+      </c>
+      <c r="D5" s="45">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="1">
-        <v>39</v>
-      </c>
-      <c r="D6" s="30">
-        <v>31</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="39"/>
-      <c r="C7" s="31">
-        <v>41</v>
-      </c>
-      <c r="D7" s="32">
-        <v>30</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="58"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="59"/>
+      <c r="C7" s="42"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="42"/>
     </row>
     <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
-        <f>AVERAGE(C2:C7)</f>
-        <v>27</v>
-      </c>
-      <c r="D10" s="5">
-        <f>AVERAGE(D2:D7)</f>
-        <v>21.833333333333332</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="3">
+        <f>AVERAGE(C2:C5)</f>
+        <v>28.75</v>
+      </c>
+      <c r="D10" s="4">
+        <f>AVERAGE(D2:D5)</f>
+        <v>22.5</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" ref="F10:M10" si="0">AVERAGE(F2:F7)</f>
         <v>17.5</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
-        <v>23.5</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="0"/>
-        <v>20.5</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="14">
+      <c r="L10" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="11">
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7">
-        <f>STDEV(C2:C7)</f>
-        <v>10.488088481701515</v>
-      </c>
-      <c r="D11" s="8">
-        <f>STDEV(D2:D7)</f>
-        <v>7.2502873506273318</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C11">
+        <f>STDEV(C2:C5)</f>
+        <v>13.022416570411705</v>
+      </c>
+      <c r="D11" s="6">
+        <f>STDEV(D2:D5)</f>
+        <v>9.2556289179432145</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11">
         <f t="shared" ref="F11:M11" si="1">STDEV(F2:F7)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="7">
+      <c r="L11" s="8">
         <f t="shared" si="1"/>
-        <v>2.1213203435596424</v>
-      </c>
-      <c r="J11" s="8">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="M11" s="13">
         <f t="shared" si="1"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="17">
-        <f t="shared" si="1"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="M11" s="18">
-        <f t="shared" si="1"/>
-        <v>0.70710678118654757</v>
-      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7">
-        <f>VAR(C2:C7)</f>
-        <v>110</v>
-      </c>
-      <c r="D12" s="8">
-        <f>VAR(D2:D7)</f>
-        <v>52.566666666666698</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12">
+        <f>VAR(C2:C5)</f>
+        <v>169.58333333333334</v>
+      </c>
+      <c r="D12" s="6">
+        <f>VAR(D2:D5)</f>
+        <v>85.666666666666671</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12">
         <f t="shared" ref="F12:M12" si="2">VAR(F2:F7)</f>
         <v>0.5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="7">
+      <c r="L12" s="8">
         <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="J12" s="8">
+        <v>2</v>
+      </c>
+      <c r="M12" s="13">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="K12" s="16" t="s">
+    </row>
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f>COUNT(C2:C5)</f>
         <v>4</v>
       </c>
-      <c r="L12" s="17">
-        <f t="shared" si="2"/>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="M12" s="18">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7">
-        <f>COUNT(C2:C7)</f>
-        <v>6</v>
-      </c>
-      <c r="D13" s="8">
-        <v>6</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <f t="shared" ref="G13:M13" si="3">COUNT(G2:G7)</f>
         <v>2</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="7">
+      <c r="L13" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="M13" s="13">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="32">
         <f>(C10-D10)/(SQRT(C12/C13)+SQRT(D12/D13))</f>
-        <v>0.71346424971525746</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="9" t="s">
+        <v>0.56109051427038081</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="32">
         <f t="shared" ref="F15:L15" si="4">(F10-G10)/(SQRT(F12/F13)+SQRT(G12/G13))</f>
         <v>3</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="22">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="20">
+      <c r="L15" s="34">
         <f t="shared" si="4"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:B7"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B1:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
